--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
@@ -15,8 +15,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>;;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,6 +79,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -117,7 +129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -150,9 +162,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,6 +214,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -361,14 +407,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -382,6 +437,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -396,6 +454,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
